--- a/Bosire_land_footprint_calculations.xlsx
+++ b/Bosire_land_footprint_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D403795D-9890-4AE4-8E02-12D2B4EDE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E54F0-A602-4353-8846-305CA6515D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
   </bookViews>
   <sheets>
     <sheet name="Meat" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0BBAEF-4B19-4B65-8495-3C2F5E2801E3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C657406-70AA-4184-89A7-4AE2F1AF5BB3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Bosire_land_footprint_calculations.xlsx
+++ b/Bosire_land_footprint_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E54F0-A602-4353-8846-305CA6515D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF506557-D6D5-4788-8020-0E275ED4606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
   </bookViews>
   <sheets>
     <sheet name="Meat" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Arid</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Ratio to grain</t>
+  </si>
+  <si>
+    <t>TLU per animal head</t>
+  </si>
+  <si>
+    <t>Land requirement -- meat (ha/Mg)</t>
+  </si>
+  <si>
+    <t>Average weight per animal</t>
+  </si>
+  <si>
+    <t>Dressing percentage</t>
   </si>
 </sst>
 </file>
@@ -156,11 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,15 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0BBAEF-4B19-4B65-8495-3C2F5E2801E3}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -491,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -600,6 +616,16 @@
       <c r="H4">
         <f t="shared" si="3"/>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -609,15 +635,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3DBCA-0C90-42E4-8461-275DA73FF8F5}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -660,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>C2*D2*0.75</f>
+        <f>C2*D2*C7</f>
         <v>246</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>1000/E2</f>
         <v>4.0650406504065044</v>
       </c>
@@ -693,7 +723,7 @@
         <f t="shared" ref="E3:E4" si="0">C3*D3*0.75</f>
         <v>246</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F4" si="1">1000/E3</f>
         <v>4.0650406504065044</v>
       </c>
@@ -723,7 +753,7 @@
         <f t="shared" si="0"/>
         <v>791.25</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>1.2638230647709321</v>
       </c>
@@ -734,6 +764,14 @@
       <c r="H4">
         <f t="shared" si="3"/>
         <v>0.28484999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +784,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C657406-70AA-4184-89A7-4AE2F1AF5BB3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Bosire_land_footprint_calculations.xlsx
+++ b/Bosire_land_footprint_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF506557-D6D5-4788-8020-0E275ED4606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8B538-4A67-4977-8BE4-6C08D9DC6740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{C7F78585-70F6-4861-AF54-B4B3CEEC9372}"/>
   </bookViews>
   <sheets>
     <sheet name="Meat" sheetId="2" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0BBAEF-4B19-4B65-8495-3C2F5E2801E3}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C657406-70AA-4184-89A7-4AE2F1AF5BB3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
